--- a/output/fit_clients/fit_round_323.xlsx
+++ b/output/fit_clients/fit_round_323.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1950632501.739347</v>
+        <v>2236151969.681962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0929217829150131</v>
+        <v>0.0778008766245631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03249277727632952</v>
+        <v>0.0411324159562832</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>975316239.8496945</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2620239870.060631</v>
+        <v>2303364907.165661</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1588788911617401</v>
+        <v>0.1515603552739261</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03980821912562749</v>
+        <v>0.04132711132867387</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1310120071.148906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3701055554.152365</v>
+        <v>3191922787.834241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1229612859773729</v>
+        <v>0.1456640987676083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02538136237166898</v>
+        <v>0.02693728459476858</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>116</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1850527770.092781</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3467907344.600869</v>
+        <v>4249698690.450226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09626046106518797</v>
+        <v>0.07492474079271631</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04157533300408615</v>
+        <v>0.03201295123924894</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1733953711.175095</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2604218292.139845</v>
+        <v>1874702890.231232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1394476897681936</v>
+        <v>0.1232467534840958</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04290717427086852</v>
+        <v>0.03940304937145055</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>61</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1302109110.279152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2024181595.953022</v>
+        <v>2591814764.358366</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07129449845456153</v>
+        <v>0.0720294649649227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03377528966954851</v>
+        <v>0.0349099422593965</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>100</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1012090856.793821</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2404426080.473228</v>
+        <v>2900470536.202511</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1454984443857441</v>
+        <v>0.1926213811128272</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02050830665224945</v>
+        <v>0.02763817182629787</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>104</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1202213036.870064</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2221853546.501467</v>
+        <v>2042282122.625877</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1690504715062248</v>
+        <v>0.1253774751845427</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02469716710588475</v>
+        <v>0.02826575156635744</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1110926769.091295</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5063130622.725813</v>
+        <v>3721929607.091824</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1400765424808409</v>
+        <v>0.1737242222482976</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04315289601027533</v>
+        <v>0.05053877382778237</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>135</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2531565415.572461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2771701913.92982</v>
+        <v>3966485352.265579</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1886761685934161</v>
+        <v>0.1828768845157811</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03608625039090745</v>
+        <v>0.04720057415827549</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>133</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1385850884.037588</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2603174226.33741</v>
+        <v>2872111372.870348</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1632815062623517</v>
+        <v>0.1344143269547503</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03696545922963926</v>
+        <v>0.03771107108569196</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>110</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1301587094.862076</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4992181725.337597</v>
+        <v>4572068641.87114</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07630740973275206</v>
+        <v>0.08265562486526019</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02372695792940508</v>
+        <v>0.02405236696646921</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>108</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2496090867.209911</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3738587442.772183</v>
+        <v>2926079629.635593</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1305189932109352</v>
+        <v>0.1239815960951403</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03503949783310178</v>
+        <v>0.02998168490196375</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>104</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1869293702.343297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1388207909.573978</v>
+        <v>1537613332.303232</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09557043755438738</v>
+        <v>0.09268039575529868</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04170876042383718</v>
+        <v>0.03595365647968648</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>694104014.9521314</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2634906541.964499</v>
+        <v>2662922678.432165</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09883278552135068</v>
+        <v>0.1160732796656485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03752703150988234</v>
+        <v>0.05132970041908409</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1317453289.763052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5195127365.088706</v>
+        <v>4979926649.51722</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1515363452520894</v>
+        <v>0.1568022643384409</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04354465345660673</v>
+        <v>0.04969048006109566</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>94</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2597563658.029898</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3197891851.75126</v>
+        <v>2691340096.017237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1208482201597909</v>
+        <v>0.1455592222315568</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03131492570261035</v>
+        <v>0.02279042527482661</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>105</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1598945941.813711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1232433424.08911</v>
+        <v>1294383628.348536</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1297039557850786</v>
+        <v>0.1918830833746562</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01890729855806404</v>
+        <v>0.01729841971526292</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>616216797.8641121</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2488294235.737677</v>
+        <v>1780663133.255482</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1129003092668176</v>
+        <v>0.131360521863178</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02616635909351192</v>
+        <v>0.02997215172723334</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1244147092.206828</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1964638732.948473</v>
+        <v>1763529759.180295</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08245337524104618</v>
+        <v>0.07545851644210406</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03120958507269355</v>
+        <v>0.02891244787945203</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>982319405.8254187</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3766252078.816518</v>
+        <v>3464026962.663386</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1444301734822084</v>
+        <v>0.133872003975131</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04395315312507927</v>
+        <v>0.03456462851956159</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1883126055.059717</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1027624257.274351</v>
+        <v>1331810223.79409</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1581696938459848</v>
+        <v>0.1268304903738993</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04174382783600582</v>
+        <v>0.04597409576161637</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>513812194.1884125</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3790661401.027865</v>
+        <v>3033927808.441313</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1256592133233138</v>
+        <v>0.1478266350081031</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02390893136915903</v>
+        <v>0.03009689478466113</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>94</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1895330682.576121</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1106976076.895171</v>
+        <v>1386246966.282077</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09907844192893647</v>
+        <v>0.08545920561682598</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01947523989994668</v>
+        <v>0.0228659625294957</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>553488077.8166887</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1087899031.266191</v>
+        <v>1292505257.261334</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08874399774619601</v>
+        <v>0.08554752933175278</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02375990572609287</v>
+        <v>0.02888730460612398</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>543949509.2854143</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3294873487.206332</v>
+        <v>4458254910.613198</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1264392784951781</v>
+        <v>0.1553824861731828</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02255805991747805</v>
+        <v>0.01923153571369645</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1647436788.783261</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3652047134.848583</v>
+        <v>3573987616.107942</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1512723234629199</v>
+        <v>0.1383345727875332</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04044375429453128</v>
+        <v>0.03672347006864994</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1826023635.241871</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5920484848.53438</v>
+        <v>3872700454.221231</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1487202429400066</v>
+        <v>0.1186993241820783</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04375116201437119</v>
+        <v>0.03835463183368749</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>142</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2960242308.057838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2017553454.602903</v>
+        <v>1476889962.376807</v>
       </c>
       <c r="F30" t="n">
-        <v>0.117034796293295</v>
+        <v>0.114957316039003</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02494689067197957</v>
+        <v>0.027489011654722</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1008776766.738924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1146868920.40379</v>
+        <v>1314207370.128991</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07408995535504993</v>
+        <v>0.1114564082505684</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04654331535786016</v>
+        <v>0.04060557991289936</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>573434424.1656648</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1462000429.933318</v>
+        <v>1307228643.650671</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08312427157212246</v>
+        <v>0.1067790227450399</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02989338845566341</v>
+        <v>0.02426692675365535</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>731000275.4501251</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2339914082.810356</v>
+        <v>2623478565.401484</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1573724222868951</v>
+        <v>0.1911006036479179</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0374320281351459</v>
+        <v>0.0535310057617266</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>96</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1169957093.236147</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1521985647.746197</v>
+        <v>1296902806.551202</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09008407687370086</v>
+        <v>0.1070700838612521</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01733073749453552</v>
+        <v>0.02074147694464535</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>760992776.1356665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1310299408.729305</v>
+        <v>1101367315.974742</v>
       </c>
       <c r="F35" t="n">
-        <v>0.100731266275017</v>
+        <v>0.08147304455567118</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04060615881999553</v>
+        <v>0.03255803236122681</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>655149654.9258465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2056854846.762009</v>
+        <v>3094085154.437154</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1654627170158372</v>
+        <v>0.1563188873908469</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02265349482884908</v>
+        <v>0.02649500868185709</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>81</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1028427480.886036</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2861551504.666105</v>
+        <v>2792282602.932747</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07798707553274151</v>
+        <v>0.1100503850614933</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02696693526000211</v>
+        <v>0.03726954793716687</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>86</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1430775898.114771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2153510694.258645</v>
+        <v>1964308990.945909</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1051995879552654</v>
+        <v>0.08099805954476622</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03510646372361557</v>
+        <v>0.03271402358141237</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1076755304.073343</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1395521371.41416</v>
+        <v>2142663253.482139</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1400198897016683</v>
+        <v>0.1484693361677572</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03182371027599896</v>
+        <v>0.03302315625196715</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>697760772.0361631</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1273240056.834633</v>
+        <v>1140756212.51316</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1032269786825007</v>
+        <v>0.1573544839563999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04266869557480606</v>
+        <v>0.05721434961115382</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>636620051.3878133</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2312288243.35572</v>
+        <v>1978828001.074319</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1259009840212013</v>
+        <v>0.1372908639271192</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04368254315609741</v>
+        <v>0.03877086116170829</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1156144165.338622</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2771427650.107495</v>
+        <v>2770571811.744098</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1267100342357568</v>
+        <v>0.1080661442940502</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03600622883691212</v>
+        <v>0.03090904577093202</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1385713769.768314</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2752178850.567242</v>
+        <v>2903494128.278363</v>
       </c>
       <c r="F43" t="n">
-        <v>0.142055287012373</v>
+        <v>0.1726147182524903</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01680760740533498</v>
+        <v>0.0234533314464686</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>115</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1376089448.599787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2276503790.389694</v>
+        <v>2082597721.556548</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06299020809094656</v>
+        <v>0.09789946170578319</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03625301992502824</v>
+        <v>0.02909030356298483</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1138252056.697823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2543964025.363124</v>
+        <v>1944732408.36989</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1736477239635613</v>
+        <v>0.1830340020258283</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03753970290166252</v>
+        <v>0.05010288782471713</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1271982058.365014</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4792725528.990703</v>
+        <v>5022565407.906093</v>
       </c>
       <c r="F46" t="n">
-        <v>0.119020985771429</v>
+        <v>0.1222842378658368</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05759198417794096</v>
+        <v>0.0398950006596732</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>114</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2396362779.430346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3704654130.683006</v>
+        <v>3664124751.646208</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1396112295360017</v>
+        <v>0.1476872160493006</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03926383703784572</v>
+        <v>0.04501152934150379</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>86</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1852327047.736854</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4285866518.061127</v>
+        <v>4679998777.51225</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1036728323123685</v>
+        <v>0.1002108684769582</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02729212069995872</v>
+        <v>0.03380729805946191</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2142933276.789874</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1267431302.568803</v>
+        <v>1285447164.881886</v>
       </c>
       <c r="F49" t="n">
-        <v>0.132505871924901</v>
+        <v>0.1328614109063153</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03453369785516139</v>
+        <v>0.02785506966728785</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>633715719.4762146</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3040456556.7328</v>
+        <v>2765249833.364848</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1520146034830688</v>
+        <v>0.122680466330872</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04256765261595387</v>
+        <v>0.04660529590913104</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>109</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1520228335.311602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1077385410.865805</v>
+        <v>1355937386.263649</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1461376177626127</v>
+        <v>0.1637327314582976</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03355302987871014</v>
+        <v>0.03648656062655269</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>538692776.8680178</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3765435361.55049</v>
+        <v>3565134837.144357</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09039148629018127</v>
+        <v>0.08610044851131515</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05112036693126307</v>
+        <v>0.05267231790419959</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>132</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1882717751.065819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3157652549.987678</v>
+        <v>3446768289.543783</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1323827204272001</v>
+        <v>0.1385068515103108</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0347313052620123</v>
+        <v>0.02632313294878943</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1578826296.573918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3612354488.687409</v>
+        <v>4359676788.040732</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1268415418112949</v>
+        <v>0.159239658118334</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03288224427576256</v>
+        <v>0.03402172312599769</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1806177277.988905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3389421088.394397</v>
+        <v>4116502657.912992</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1688058131093861</v>
+        <v>0.148897858670553</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03152471192459556</v>
+        <v>0.0220739523945358</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1694710492.147249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1488980936.077689</v>
+        <v>1221862332.609102</v>
       </c>
       <c r="F56" t="n">
-        <v>0.163098376410042</v>
+        <v>0.1188081052494287</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03594934305394746</v>
+        <v>0.05410898510781826</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>744490511.932296</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2946257570.146775</v>
+        <v>4429023663.281937</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1717607309745554</v>
+        <v>0.1686176587557264</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02416154739916752</v>
+        <v>0.02450180123132148</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>102</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1473128784.968582</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1648874809.322705</v>
+        <v>1890805804.225274</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2017431201164502</v>
+        <v>0.1559565070149873</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03685498751257308</v>
+        <v>0.02404228230405861</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>824437422.2124735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3714335793.237081</v>
+        <v>4411631371.400483</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1264309573550134</v>
+        <v>0.1275196953213566</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03034513660431708</v>
+        <v>0.03321599485035489</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>91</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1857167886.348591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3275578894.864303</v>
+        <v>3407751344.326154</v>
       </c>
       <c r="F60" t="n">
-        <v>0.191680933042347</v>
+        <v>0.1716699399653417</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02053112061066826</v>
+        <v>0.02845939180079703</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1637789546.694566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3003992610.628913</v>
+        <v>3024093717.644633</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1205134986571708</v>
+        <v>0.1689423717123259</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03277814954868061</v>
+        <v>0.02439752375875005</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>110</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1501996285.409568</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1452693144.109954</v>
+        <v>1370927141.050695</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1450018127213791</v>
+        <v>0.1808074833225856</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03634078479538806</v>
+        <v>0.0339582214767031</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>726346548.0394567</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3924792351.724138</v>
+        <v>3605477799.436345</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06958529175591527</v>
+        <v>0.102025067754712</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04480594128166103</v>
+        <v>0.03897358086154755</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1962396241.627973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5132180281.008616</v>
+        <v>3892401171.104392</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1344051326442718</v>
+        <v>0.1368571337199221</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02935476817352606</v>
+        <v>0.0268208633837372</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>100</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2566090256.004661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4266385214.893981</v>
+        <v>4468198412.212193</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1088678949564779</v>
+        <v>0.1604547411204188</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02071820068936354</v>
+        <v>0.02446020914413413</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>116</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2133192610.145961</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4520160644.465891</v>
+        <v>5235426099.547075</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1337230300346055</v>
+        <v>0.1555844791969625</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04423441710544376</v>
+        <v>0.03192733953529731</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>94</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2260080323.725393</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2574166026.559999</v>
+        <v>2206617217.09239</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07296050195231056</v>
+        <v>0.08878583822031409</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03856457034541693</v>
+        <v>0.03274871308706553</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>103</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1287083067.635488</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5096740258.417457</v>
+        <v>5824795546.926563</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1255473931483508</v>
+        <v>0.1374256894840734</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04092843601125467</v>
+        <v>0.03748218622174976</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2548370191.47545</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2418476096.239294</v>
+        <v>1604739917.775827</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1821019492356719</v>
+        <v>0.1332367690591892</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04758095929892742</v>
+        <v>0.04613424721452007</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1209238107.212804</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2333600903.901099</v>
+        <v>2292801427.097769</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08640643612626404</v>
+        <v>0.06632102034157268</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04740767825000477</v>
+        <v>0.041684304018408</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>92</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1166800385.536024</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3755042871.814174</v>
+        <v>3506830886.400529</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1292602959385021</v>
+        <v>0.1637230648084059</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03300440303609306</v>
+        <v>0.02068020140743939</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>117</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1877521448.650101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2092469012.734685</v>
+        <v>1763674824.42345</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07845367718779858</v>
+        <v>0.1030010217403046</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0441243458234471</v>
+        <v>0.05249331325239306</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1046234437.776401</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3087362404.577293</v>
+        <v>2663728478.591159</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07504145228444851</v>
+        <v>0.1007863291547002</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04663139373573418</v>
+        <v>0.05133213551318922</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>124</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1543681190.272791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2725265212.963662</v>
+        <v>2723091745.765497</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1804331949136372</v>
+        <v>0.1773845698255501</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02939645066283622</v>
+        <v>0.02605007548743502</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>109</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1362632695.658722</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1955600854.747417</v>
+        <v>1672299267.08495</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1187384874502764</v>
+        <v>0.1291124608698561</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02834921728338924</v>
+        <v>0.03007142699598234</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>977800395.6744517</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5324651065.27443</v>
+        <v>3951379928.325199</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09349272907909324</v>
+        <v>0.08273373769431512</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02643425479650435</v>
+        <v>0.02675179595444495</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2662325572.924056</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1552799572.904648</v>
+        <v>2159947042.387799</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1758460991558257</v>
+        <v>0.1849088212258394</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02422521154017736</v>
+        <v>0.01979214301884489</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>776399781.970094</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3642063705.735888</v>
+        <v>4637060740.294222</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1088745656962855</v>
+        <v>0.08897452594032959</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0549962061833858</v>
+        <v>0.04118636039244519</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>112</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1821031844.22523</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1838832159.535296</v>
+        <v>1793607849.124697</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1542288378868884</v>
+        <v>0.1198942118880775</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04004884506714887</v>
+        <v>0.03970269132076761</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>919416173.2455531</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4855442878.27756</v>
+        <v>3609058427.510916</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0853616669162104</v>
+        <v>0.1019531931697434</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03089242956940588</v>
+        <v>0.02648426028887444</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2427721481.171957</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4886915161.243971</v>
+        <v>4412021327.115303</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1132511565935939</v>
+        <v>0.1319448432130801</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03026510309024424</v>
+        <v>0.02963483998701129</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2443457576.74433</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3968406315.280348</v>
+        <v>5634262899.408653</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1611262899024727</v>
+        <v>0.1855258217570871</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02410036197013703</v>
+        <v>0.02647263735350521</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1984203199.141292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1608150507.966358</v>
+        <v>1668397047.920609</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1388080300032962</v>
+        <v>0.1450535174476144</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04362368775256433</v>
+        <v>0.04076454956767907</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>804075190.5293233</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2312956027.774827</v>
+        <v>2492707165.218707</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1034279518541444</v>
+        <v>0.07456720997201075</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03379102632696593</v>
+        <v>0.04271963249928555</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1156477973.073502</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3104639788.897075</v>
+        <v>2316650086.453862</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1193197887335343</v>
+        <v>0.1255845783723787</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04336179119157868</v>
+        <v>0.05475770863959425</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>121</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1552319966.157909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1847143319.441222</v>
+        <v>2446881650.837697</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1608736673200931</v>
+        <v>0.1370405570403549</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02029526118313325</v>
+        <v>0.02365459352771951</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>923571666.0914587</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1073178100.37136</v>
+        <v>1259555346.432411</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1456427306176392</v>
+        <v>0.1640268379452055</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0372035559406762</v>
+        <v>0.03175383555595017</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>536589073.287975</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3502868186.129848</v>
+        <v>2484408151.715524</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1465426569421601</v>
+        <v>0.1656218318357056</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02580717524151802</v>
+        <v>0.03956383389568678</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>127</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1751434173.223646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2776761816.221353</v>
+        <v>3498733339.350358</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1306441311957478</v>
+        <v>0.1505156956003445</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02633751561268321</v>
+        <v>0.02809125525551318</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>110</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1388380962.582811</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1585018414.559417</v>
+        <v>2095580505.202677</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1154958765438302</v>
+        <v>0.1252672394016398</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03708581825791581</v>
+        <v>0.04824820993065221</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>792509201.5574393</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1923686469.119015</v>
+        <v>1965695607.049629</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1806525743000602</v>
+        <v>0.1658125922248281</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04735282475089194</v>
+        <v>0.05302112276264257</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>961843217.0240682</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2456542757.069975</v>
+        <v>2992711709.604995</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07174093158196712</v>
+        <v>0.08983564197290921</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0435394839088395</v>
+        <v>0.04747771814417075</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>87</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1228271359.215283</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4132923362.664701</v>
+        <v>3517211251.675571</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08894810648168855</v>
+        <v>0.1283482625200365</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05125617334623415</v>
+        <v>0.04838973277525482</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2066461673.358867</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1596935565.945515</v>
+        <v>1654730574.010448</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1470862227045338</v>
+        <v>0.1465271463917575</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03168910998036473</v>
+        <v>0.03339505084731782</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>798467728.8369098</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2571130464.193059</v>
+        <v>2951656772.111534</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1240604165771034</v>
+        <v>0.1211006640939057</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0501682477572557</v>
+        <v>0.03503105514768504</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1285565263.011147</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1509057806.889864</v>
+        <v>1607442180.818752</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1074385207634389</v>
+        <v>0.1354677522790512</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02882419086350974</v>
+        <v>0.02947697721969678</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>754528942.8268697</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4419604331.842783</v>
+        <v>4155045032.561561</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1368850361869777</v>
+        <v>0.1405166044621552</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02738454475570897</v>
+        <v>0.02282101411755046</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>103</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2209802256.045327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3229680339.070262</v>
+        <v>3015059276.900723</v>
       </c>
       <c r="F98" t="n">
-        <v>0.120097612405902</v>
+        <v>0.1052635899193921</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02897890579695451</v>
+        <v>0.02351924814021896</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1614840169.794395</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2292821428.361294</v>
+        <v>3400368967.116112</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1205269731617227</v>
+        <v>0.09571731563673783</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02146747640716447</v>
+        <v>0.03221333406761319</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>101</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1146410648.875349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3585905614.303045</v>
+        <v>3792535791.290265</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1606925693751127</v>
+        <v>0.1746542183002613</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02336942070360325</v>
+        <v>0.02462055198225443</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1792952844.77101</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2248053835.623824</v>
+        <v>2322221834.489211</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2111775976411011</v>
+        <v>0.199333733102013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04954442210517814</v>
+        <v>0.04394833369734905</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>129</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1124026907.487872</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_323.xlsx
+++ b/output/fit_clients/fit_round_323.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2236151969.681962</v>
+        <v>2476354357.343654</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0778008766245631</v>
+        <v>0.101279488180363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0411324159562832</v>
+        <v>0.04018220895242366</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2303364907.165661</v>
+        <v>1770996305.784808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1515603552739261</v>
+        <v>0.1133176230409236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04132711132867387</v>
+        <v>0.04547817555960149</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3191922787.834241</v>
+        <v>3708711669.755297</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1456640987676083</v>
+        <v>0.1041842580474021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02693728459476858</v>
+        <v>0.02866733207559057</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4249698690.450226</v>
+        <v>2662902538.361449</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07492474079271631</v>
+        <v>0.1097333831350236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03201295123924894</v>
+        <v>0.03835841183443663</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1874702890.231232</v>
+        <v>1876115618.947203</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1232467534840958</v>
+        <v>0.1134497418186453</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03940304937145055</v>
+        <v>0.04253467846681511</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2591814764.358366</v>
+        <v>2491727721.224311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0720294649649227</v>
+        <v>0.08300184879913643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0349099422593965</v>
+        <v>0.04778032793789867</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2900470536.202511</v>
+        <v>3873184991.136788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1926213811128272</v>
+        <v>0.1838196369168684</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02763817182629787</v>
+        <v>0.02924238962000049</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2042282122.625877</v>
+        <v>1406249302.216857</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1253774751845427</v>
+        <v>0.1286034147284114</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02826575156635744</v>
+        <v>0.03343869602849787</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3721929607.091824</v>
+        <v>4734246851.555921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1737242222482976</v>
+        <v>0.2002051357253192</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05053877382778237</v>
+        <v>0.04312665047921339</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3966485352.265579</v>
+        <v>2837657178.844543</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1828768845157811</v>
+        <v>0.1338565559754404</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04720057415827549</v>
+        <v>0.04851379949722434</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2872111372.870348</v>
+        <v>3096995978.929176</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1344143269547503</v>
+        <v>0.1628389794148012</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03771107108569196</v>
+        <v>0.04999739172364276</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4572068641.87114</v>
+        <v>3989575592.736326</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08265562486526019</v>
+        <v>0.08152251167566574</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02405236696646921</v>
+        <v>0.0259391441759868</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2926079629.635593</v>
+        <v>2866416273.097719</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1239815960951403</v>
+        <v>0.131393067461434</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02998168490196375</v>
+        <v>0.04370078998313351</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1537613332.303232</v>
+        <v>1753990183.395015</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09268039575529868</v>
+        <v>0.08785178108500867</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03595365647968648</v>
+        <v>0.0442157525557498</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2662922678.432165</v>
+        <v>2335949940.549581</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1160732796656485</v>
+        <v>0.07451286149926351</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05132970041908409</v>
+        <v>0.04211610233423131</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4979926649.51722</v>
+        <v>4387562615.096102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1568022643384409</v>
+        <v>0.1257097574952844</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04969048006109566</v>
+        <v>0.03970039824126835</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2691340096.017237</v>
+        <v>3168193656.049632</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1455592222315568</v>
+        <v>0.1204625984310192</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02279042527482661</v>
+        <v>0.02149574527237344</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1294383628.348536</v>
+        <v>970336225.2902293</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1918830833746562</v>
+        <v>0.1832218879300514</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01729841971526292</v>
+        <v>0.02069181709856653</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1780663133.255482</v>
+        <v>2068790756.689014</v>
       </c>
       <c r="F20" t="n">
-        <v>0.131360521863178</v>
+        <v>0.1355959598966356</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02997215172723334</v>
+        <v>0.0204664132480566</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1763529759.180295</v>
+        <v>1928407824.197909</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07545851644210406</v>
+        <v>0.08668114524947544</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02891244787945203</v>
+        <v>0.03450450722669627</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3464026962.663386</v>
+        <v>3154597279.367157</v>
       </c>
       <c r="F22" t="n">
-        <v>0.133872003975131</v>
+        <v>0.09216990969428056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03456462851956159</v>
+        <v>0.04720014111238458</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1331810223.79409</v>
+        <v>1091687571.780251</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1268304903738993</v>
+        <v>0.1212050114773534</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04597409576161637</v>
+        <v>0.03455582986893907</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3033927808.441313</v>
+        <v>2962288795.227627</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1478266350081031</v>
+        <v>0.09706610009289576</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03009689478466113</v>
+        <v>0.0296728590529022</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1386246966.282077</v>
+        <v>1006471189.863119</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08545920561682598</v>
+        <v>0.09572008099820778</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0228659625294957</v>
+        <v>0.02085898848803565</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1292505257.261334</v>
+        <v>1125692436.061284</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08554752933175278</v>
+        <v>0.0955223684187918</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02888730460612398</v>
+        <v>0.03885985475430233</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4458254910.613198</v>
+        <v>3192339395.314092</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1553824861731828</v>
+        <v>0.1384886195379108</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01923153571369645</v>
+        <v>0.02436547271391689</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3573987616.107942</v>
+        <v>2906603093.535202</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1383345727875332</v>
+        <v>0.121290312164414</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03672347006864994</v>
+        <v>0.04177474819304601</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3872700454.221231</v>
+        <v>5143938389.452135</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1186993241820783</v>
+        <v>0.1492233522320507</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03835463183368749</v>
+        <v>0.03129322845366673</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1476889962.376807</v>
+        <v>1450368338.338893</v>
       </c>
       <c r="F30" t="n">
-        <v>0.114957316039003</v>
+        <v>0.1087773065847826</v>
       </c>
       <c r="G30" t="n">
-        <v>0.027489011654722</v>
+        <v>0.03964502516641961</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1314207370.128991</v>
+        <v>1260268905.482532</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1114564082505684</v>
+        <v>0.09899421567816594</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04060557991289936</v>
+        <v>0.04641262010091445</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1307228643.650671</v>
+        <v>1301512805.506454</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1067790227450399</v>
+        <v>0.1077646120071871</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02426692675365535</v>
+        <v>0.03307143045719693</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2623478565.401484</v>
+        <v>2252657053.823071</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1911006036479179</v>
+        <v>0.1711129265105646</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0535310057617266</v>
+        <v>0.05529549150290411</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1296902806.551202</v>
+        <v>1188662980.398166</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1070700838612521</v>
+        <v>0.103717921621786</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02074147694464535</v>
+        <v>0.02104211283756836</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1101367315.974742</v>
+        <v>884406269.2785838</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08147304455567118</v>
+        <v>0.1085334343932194</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03255803236122681</v>
+        <v>0.02720891337410805</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3094085154.437154</v>
+        <v>3235647092.330755</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1563188873908469</v>
+        <v>0.1733837731355041</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02649500868185709</v>
+        <v>0.0233499325057852</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2792282602.932747</v>
+        <v>2800120283.760563</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1100503850614933</v>
+        <v>0.09459081648010875</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03726954793716687</v>
+        <v>0.02642834374396027</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1964308990.945909</v>
+        <v>2193957373.408953</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08099805954476622</v>
+        <v>0.1194774213507765</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03271402358141237</v>
+        <v>0.03000306887218896</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2142663253.482139</v>
+        <v>1665874937.64133</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1484693361677572</v>
+        <v>0.1587274890552664</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03302315625196715</v>
+        <v>0.02840979181786064</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1140756212.51316</v>
+        <v>1680846046.561717</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1573544839563999</v>
+        <v>0.1246851549663934</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05721434961115382</v>
+        <v>0.04245381899110451</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1978828001.074319</v>
+        <v>2381008787.548912</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1372908639271192</v>
+        <v>0.1274599763853191</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03877086116170829</v>
+        <v>0.03657733492145181</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2770571811.744098</v>
+        <v>2621414109.280345</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1080661442940502</v>
+        <v>0.08092072884986841</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03090904577093202</v>
+        <v>0.03695570327624022</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2903494128.278363</v>
+        <v>2244043513.416671</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1726147182524903</v>
+        <v>0.2001056418134601</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0234533314464686</v>
+        <v>0.0202539983588758</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2082597721.556548</v>
+        <v>2336778017.635294</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09789946170578319</v>
+        <v>0.09380896299320476</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02909030356298483</v>
+        <v>0.03713031253190702</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1944732408.36989</v>
+        <v>2089391161.940294</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1830340020258283</v>
+        <v>0.1516836480168953</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05010288782471713</v>
+        <v>0.05093619557206041</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5022565407.906093</v>
+        <v>4821885744.358582</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1222842378658368</v>
+        <v>0.1229519558023733</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0398950006596732</v>
+        <v>0.04021855225810839</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3664124751.646208</v>
+        <v>4238089627.42887</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1476872160493006</v>
+        <v>0.1926860926449238</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04501152934150379</v>
+        <v>0.04782597921618535</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4679998777.51225</v>
+        <v>4262869837.995697</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1002108684769582</v>
+        <v>0.07545422446756475</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03380729805946191</v>
+        <v>0.02646122864725978</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1285447164.881886</v>
+        <v>1329812463.363827</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1328614109063153</v>
+        <v>0.1846097687002803</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02785506966728785</v>
+        <v>0.03298134416595381</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2765249833.364848</v>
+        <v>2670172111.058095</v>
       </c>
       <c r="F50" t="n">
-        <v>0.122680466330872</v>
+        <v>0.1557287451217793</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04660529590913104</v>
+        <v>0.05277104181558735</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1355937386.263649</v>
+        <v>1251599814.78982</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1637327314582976</v>
+        <v>0.1478138529969221</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03648656062655269</v>
+        <v>0.03831555855036985</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3565134837.144357</v>
+        <v>4613544179.307943</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08610044851131515</v>
+        <v>0.1098423826522459</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05267231790419959</v>
+        <v>0.04175225838350555</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3446768289.543783</v>
+        <v>3215463063.982934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1385068515103108</v>
+        <v>0.12841758285078</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02632313294878943</v>
+        <v>0.03324445989250209</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4359676788.040732</v>
+        <v>4981995498.130656</v>
       </c>
       <c r="F54" t="n">
-        <v>0.159239658118334</v>
+        <v>0.1452416500111352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03402172312599769</v>
+        <v>0.03463280077340924</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4116502657.912992</v>
+        <v>4882208126.566657</v>
       </c>
       <c r="F55" t="n">
-        <v>0.148897858670553</v>
+        <v>0.1451319174864258</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0220739523945358</v>
+        <v>0.02920935251275495</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1221862332.609102</v>
+        <v>1304166128.162746</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1188081052494287</v>
+        <v>0.1366197583134642</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05410898510781826</v>
+        <v>0.05581202113229609</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4429023663.281937</v>
+        <v>4382443146.255395</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1686176587557264</v>
+        <v>0.1620972270585876</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02450180123132148</v>
+        <v>0.02407840140767118</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1890805804.225274</v>
+        <v>1830742787.589717</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1559565070149873</v>
+        <v>0.1297808204156869</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02404228230405861</v>
+        <v>0.02549407273515056</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4411631371.400483</v>
+        <v>3315961109.453167</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1275196953213566</v>
+        <v>0.08473067436407559</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03321599485035489</v>
+        <v>0.03933525796995378</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3407751344.326154</v>
+        <v>2330173284.246025</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1716699399653417</v>
+        <v>0.1340360411224008</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02845939180079703</v>
+        <v>0.02470845917494716</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3024093717.644633</v>
+        <v>2172094618.723206</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1689423717123259</v>
+        <v>0.1621742938754104</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02439752375875005</v>
+        <v>0.02094124157677272</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1370927141.050695</v>
+        <v>1959660338.124419</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1808074833225856</v>
+        <v>0.1856481227649039</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0339582214767031</v>
+        <v>0.03707404975078095</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3605477799.436345</v>
+        <v>3741937226.519351</v>
       </c>
       <c r="F63" t="n">
-        <v>0.102025067754712</v>
+        <v>0.09167102354101776</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03897358086154755</v>
+        <v>0.03726113550919929</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3892401171.104392</v>
+        <v>5413021766.241027</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1368571337199221</v>
+        <v>0.1571392250056394</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0268208633837372</v>
+        <v>0.03311295306315493</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4468198412.212193</v>
+        <v>4789072528.847109</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1604547411204188</v>
+        <v>0.1373268231291895</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02446020914413413</v>
+        <v>0.02365224323104557</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5235426099.547075</v>
+        <v>4610209767.657559</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1555844791969625</v>
+        <v>0.1594272910396694</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03192733953529731</v>
+        <v>0.04474569934443178</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2206617217.09239</v>
+        <v>3507257351.287658</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08878583822031409</v>
+        <v>0.06591622029952061</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03274871308706553</v>
+        <v>0.03707708058128859</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5824795546.926563</v>
+        <v>3679062964.156297</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1374256894840734</v>
+        <v>0.1433723683507419</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03748218622174976</v>
+        <v>0.05153789486164744</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1604739917.775827</v>
+        <v>2063512586.739363</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1332367690591892</v>
+        <v>0.1216535255501143</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04613424721452007</v>
+        <v>0.0438715885143714</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2292801427.097769</v>
+        <v>3245824215.580911</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06632102034157268</v>
+        <v>0.07206743405611579</v>
       </c>
       <c r="G70" t="n">
-        <v>0.041684304018408</v>
+        <v>0.0364154752193098</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3506830886.400529</v>
+        <v>3655804569.348344</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1637230648084059</v>
+        <v>0.1149385105902677</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02068020140743939</v>
+        <v>0.0314671211354076</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1763674824.42345</v>
+        <v>1508645882.6864</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1030010217403046</v>
+        <v>0.08135553643371007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05249331325239306</v>
+        <v>0.03868710577864114</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2663728478.591159</v>
+        <v>2329200852.436005</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1007863291547002</v>
+        <v>0.0830579156654829</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05133213551318922</v>
+        <v>0.04743700838858649</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2723091745.765497</v>
+        <v>3439206332.033759</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1773845698255501</v>
+        <v>0.1729396948099182</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02605007548743502</v>
+        <v>0.03250743240682608</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1672299267.08495</v>
+        <v>2011199671.439007</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1291124608698561</v>
+        <v>0.1425166237361988</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03007142699598234</v>
+        <v>0.02556118866483889</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3951379928.325199</v>
+        <v>4601242400.9494</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08273373769431512</v>
+        <v>0.102188578758903</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02675179595444495</v>
+        <v>0.02682175530896621</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2159947042.387799</v>
+        <v>2228648692.28154</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1849088212258394</v>
+        <v>0.1399126175392679</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01979214301884489</v>
+        <v>0.02544765218132774</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4637060740.294222</v>
+        <v>3421831232.591269</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08897452594032959</v>
+        <v>0.120137029257908</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04118636039244519</v>
+        <v>0.04797357689268326</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1793607849.124697</v>
+        <v>1320305471.657204</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1198942118880775</v>
+        <v>0.1169075612300165</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03970269132076761</v>
+        <v>0.03020735831775085</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3609058427.510916</v>
+        <v>3487643408.216846</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1019531931697434</v>
+        <v>0.07590847125683414</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02648426028887444</v>
+        <v>0.03872996723390399</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4412021327.115303</v>
+        <v>4832505014.119033</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1319448432130801</v>
+        <v>0.09340260012523921</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02963483998701129</v>
+        <v>0.02936060338048984</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5634262899.408653</v>
+        <v>4061310853.62635</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1855258217570871</v>
+        <v>0.1741125548806955</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02647263735350521</v>
+        <v>0.02744986313270488</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1668397047.920609</v>
+        <v>1584451267.99071</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1450535174476144</v>
+        <v>0.1409134876301373</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04076454956767907</v>
+        <v>0.03554145981186513</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2492707165.218707</v>
+        <v>2533708824.785078</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07456720997201075</v>
+        <v>0.09112728885159375</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04271963249928555</v>
+        <v>0.04398064764630422</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2316650086.453862</v>
+        <v>3338374808.225915</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1255845783723787</v>
+        <v>0.1389669458151592</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05475770863959425</v>
+        <v>0.04939017649298739</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2446881650.837697</v>
+        <v>2684973457.723733</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1370405570403549</v>
+        <v>0.1233457488199798</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02365459352771951</v>
+        <v>0.01709380154692404</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1259555346.432411</v>
+        <v>1160161142.302738</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1640268379452055</v>
+        <v>0.1636346586717543</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03175383555595017</v>
+        <v>0.03025323454316043</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2484408151.715524</v>
+        <v>2898849628.919194</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1656218318357056</v>
+        <v>0.115668680262472</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03956383389568678</v>
+        <v>0.03350404281163361</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3498733339.350358</v>
+        <v>2576941823.157661</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1505156956003445</v>
+        <v>0.1513415142647363</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02809125525551318</v>
+        <v>0.03276740763393757</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2095580505.202677</v>
+        <v>1415047208.263651</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1252672394016398</v>
+        <v>0.1132494723794195</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04824820993065221</v>
+        <v>0.05056132019256369</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1965695607.049629</v>
+        <v>1681845954.913418</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1658125922248281</v>
+        <v>0.1768547217808006</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05302112276264257</v>
+        <v>0.03802437657468479</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2992711709.604995</v>
+        <v>2933369926.310866</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08983564197290921</v>
+        <v>0.07687239147225818</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04747771814417075</v>
+        <v>0.04040286970290744</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3517211251.675571</v>
+        <v>3831483855.116285</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1283482625200365</v>
+        <v>0.1127905035927218</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04838973277525482</v>
+        <v>0.04486945919338906</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1654730574.010448</v>
+        <v>2437958708.064281</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1465271463917575</v>
+        <v>0.1656376284629615</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03339505084731782</v>
+        <v>0.04242317613644067</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2951656772.111534</v>
+        <v>2679985839.035657</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1211006640939057</v>
+        <v>0.1237264055704577</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03503105514768504</v>
+        <v>0.03603261000069312</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1607442180.818752</v>
+        <v>1751734365.960718</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1354677522790512</v>
+        <v>0.1048936592288789</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02947697721969678</v>
+        <v>0.04203200219634624</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4155045032.561561</v>
+        <v>3329060138.556026</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1405166044621552</v>
+        <v>0.1073222112028497</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02282101411755046</v>
+        <v>0.02499454376591013</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3015059276.900723</v>
+        <v>3031429608.671273</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1052635899193921</v>
+        <v>0.1031812163519561</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02351924814021896</v>
+        <v>0.02631711479922276</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3400368967.116112</v>
+        <v>2330405016.706065</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09571731563673783</v>
+        <v>0.1029385198160281</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03221333406761319</v>
+        <v>0.02882618320073949</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3792535791.290265</v>
+        <v>4403830899.160363</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1746542183002613</v>
+        <v>0.1563457927297811</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02462055198225443</v>
+        <v>0.01801778326536994</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2322221834.489211</v>
+        <v>2469803471.146228</v>
       </c>
       <c r="F101" t="n">
-        <v>0.199333733102013</v>
+        <v>0.1960770299248233</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04394833369734905</v>
+        <v>0.05517874173539968</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_323.xlsx
+++ b/output/fit_clients/fit_round_323.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2476354357.343654</v>
+        <v>1756183078.507598</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101279488180363</v>
+        <v>0.1056576276781888</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04018220895242366</v>
+        <v>0.04449623755184139</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1770996305.784808</v>
+        <v>1934943492.610432</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1133176230409236</v>
+        <v>0.1766302966152463</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04547817555960149</v>
+        <v>0.03621719028531693</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3708711669.755297</v>
+        <v>4913515295.400637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1041842580474021</v>
+        <v>0.1503115646801949</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02866733207559057</v>
+        <v>0.03797262122058605</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>168</v>
+      </c>
+      <c r="J4" t="n">
+        <v>323</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2662902538.361449</v>
+        <v>2566170076.116466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1097333831350236</v>
+        <v>0.07228691889361406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03835841183443663</v>
+        <v>0.04759506882907171</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>130</v>
+      </c>
+      <c r="J5" t="n">
+        <v>322</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36.40902391589318</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1876115618.947203</v>
+        <v>1920945623.537089</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1134497418186453</v>
+        <v>0.1253943609571018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04253467846681511</v>
+        <v>0.04946168014244794</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2491727721.224311</v>
+        <v>2548357439.846961</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08300184879913643</v>
+        <v>0.07239475580640452</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04778032793789867</v>
+        <v>0.0305435851935125</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3873184991.136788</v>
+        <v>3963630748.237387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1838196369168684</v>
+        <v>0.179992141929824</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02924238962000049</v>
+        <v>0.03094373046607465</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>323</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1406249302.216857</v>
+        <v>1418301904.721563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1286034147284114</v>
+        <v>0.1485878562382739</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03343869602849787</v>
+        <v>0.03640995627483652</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4734246851.555921</v>
+        <v>4125773787.978121</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2002051357253192</v>
+        <v>0.1394136068513244</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04312665047921339</v>
+        <v>0.04775210802711299</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>280</v>
+      </c>
+      <c r="J10" t="n">
+        <v>323</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2837657178.844543</v>
+        <v>2846298098.360566</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1338565559754404</v>
+        <v>0.1365329942220581</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04851379949722434</v>
+        <v>0.03351667492706849</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>132</v>
+      </c>
+      <c r="J11" t="n">
+        <v>322</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.59119171020284</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3096995978.929176</v>
+        <v>2430290664.478066</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1628389794148012</v>
+        <v>0.1627149321186759</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04999739172364276</v>
+        <v>0.04933701627176953</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3989575592.736326</v>
+        <v>5041115294.694992</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08152251167566574</v>
+        <v>0.09506570743141898</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0259391441759868</v>
+        <v>0.02212844437096144</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>167</v>
+      </c>
+      <c r="J13" t="n">
+        <v>323</v>
+      </c>
+      <c r="K13" t="n">
+        <v>74.39345840156051</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2866416273.097719</v>
+        <v>3507879218.955313</v>
       </c>
       <c r="F14" t="n">
-        <v>0.131393067461434</v>
+        <v>0.1523081084539466</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04370078998313351</v>
+        <v>0.0416614915713945</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>66</v>
+      </c>
+      <c r="J14" t="n">
+        <v>322</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67.91907333603669</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1753990183.395015</v>
+        <v>1626992653.62907</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08785178108500867</v>
+        <v>0.07823080184606403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0442157525557498</v>
+        <v>0.04822832032234218</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2335949940.549581</v>
+        <v>2795852444.39077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07451286149926351</v>
+        <v>0.08836999539609133</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04211610233423131</v>
+        <v>0.05065548246518538</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4387562615.096102</v>
+        <v>5237807524.63824</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1257097574952844</v>
+        <v>0.1327980193836186</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03970039824126835</v>
+        <v>0.04427315409247207</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>152</v>
+      </c>
+      <c r="J17" t="n">
+        <v>322</v>
+      </c>
+      <c r="K17" t="n">
+        <v>72.99889513545017</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3168193656.049632</v>
+        <v>2630253691.358875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1204625984310192</v>
+        <v>0.169513167014181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02149574527237344</v>
+        <v>0.03330997803239744</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>80</v>
+      </c>
+      <c r="J18" t="n">
+        <v>321</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>970336225.2902293</v>
+        <v>996766763.3063729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1832218879300514</v>
+        <v>0.1295587371535721</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02069181709856653</v>
+        <v>0.02059255292385453</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2068790756.689014</v>
+        <v>1714495070.473146</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1355959598966356</v>
+        <v>0.1289636491430378</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0204664132480566</v>
+        <v>0.03160664749956582</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1928407824.197909</v>
+        <v>2224112351.48576</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08668114524947544</v>
+        <v>0.06866772938071036</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03450450722669627</v>
+        <v>0.04014608285481468</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3154597279.367157</v>
+        <v>3724119602.346429</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09216990969428056</v>
+        <v>0.1230296178670879</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04720014111238458</v>
+        <v>0.04142004555731758</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>87</v>
+      </c>
+      <c r="J22" t="n">
+        <v>323</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1091687571.780251</v>
+        <v>1506536751.053334</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1212050114773534</v>
+        <v>0.1295764928790616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03455582986893907</v>
+        <v>0.04762870425254511</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2962288795.227627</v>
+        <v>3725447215.767519</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09706610009289576</v>
+        <v>0.1381461205787508</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0296728590529022</v>
+        <v>0.03352713346577817</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>322</v>
+      </c>
+      <c r="K24" t="n">
+        <v>63.68307845334495</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1006471189.863119</v>
+        <v>1148988229.962652</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09572008099820778</v>
+        <v>0.1099013291654155</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02085898848803565</v>
+        <v>0.01932506611397083</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1125692436.061284</v>
+        <v>923133898.0183033</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0955223684187918</v>
+        <v>0.07513472656215608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03885985475430233</v>
+        <v>0.02463019113015695</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3192339395.314092</v>
+        <v>3986328767.605124</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1384886195379108</v>
+        <v>0.1494424787708318</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02436547271391689</v>
+        <v>0.02146719166926408</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>134</v>
+      </c>
+      <c r="J27" t="n">
+        <v>322</v>
+      </c>
+      <c r="K27" t="n">
+        <v>69.08287524555726</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2906603093.535202</v>
+        <v>2852101588.226521</v>
       </c>
       <c r="F28" t="n">
-        <v>0.121290312164414</v>
+        <v>0.1010844178454466</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04177474819304601</v>
+        <v>0.03242615947514556</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>70</v>
+      </c>
+      <c r="J28" t="n">
+        <v>321</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5143938389.452135</v>
+        <v>4761411495.584089</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1492233522320507</v>
+        <v>0.09582361134449073</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03129322845366673</v>
+        <v>0.04345389951467606</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>297</v>
+      </c>
+      <c r="J29" t="n">
+        <v>323</v>
+      </c>
+      <c r="K29" t="n">
+        <v>74.51821817114579</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1450368338.338893</v>
+        <v>2041453245.691452</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1087773065847826</v>
+        <v>0.1097611063854082</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03964502516641961</v>
+        <v>0.04022060596507516</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1260268905.482532</v>
+        <v>1301312350.668029</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09899421567816594</v>
+        <v>0.08703053629160137</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04641262010091445</v>
+        <v>0.03206086654140439</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1301512805.506454</v>
+        <v>1510316326.408719</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1077646120071871</v>
+        <v>0.1115982351275435</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03307143045719693</v>
+        <v>0.03266999137552116</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2252657053.823071</v>
+        <v>2668717397.505087</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1711129265105646</v>
+        <v>0.1440506017100934</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05529549150290411</v>
+        <v>0.04437683940506116</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1188662980.398166</v>
+        <v>998510637.8923434</v>
       </c>
       <c r="F34" t="n">
-        <v>0.103717921621786</v>
+        <v>0.07999991889721585</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02104211283756836</v>
+        <v>0.02135099729368669</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>884406269.2785838</v>
+        <v>838417121.7465268</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1085334343932194</v>
+        <v>0.07989599032895824</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02720891337410805</v>
+        <v>0.03489001693684114</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3235647092.330755</v>
+        <v>3247945092.918179</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1733837731355041</v>
+        <v>0.1443711352072093</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0233499325057852</v>
+        <v>0.02446781562441274</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2800120283.760563</v>
+        <v>1854220560.365578</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09459081648010875</v>
+        <v>0.09762852421332864</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02642834374396027</v>
+        <v>0.03743433991146462</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2193957373.408953</v>
+        <v>1371198669.16852</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1194774213507765</v>
+        <v>0.1017541050296167</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03000306887218896</v>
+        <v>0.02519735578591602</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1665874937.64133</v>
+        <v>1930214276.219922</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1587274890552664</v>
+        <v>0.1778671504883401</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02840979181786064</v>
+        <v>0.027246088014962</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1680846046.561717</v>
+        <v>1140015138.620627</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1246851549663934</v>
+        <v>0.1358860679028344</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04245381899110451</v>
+        <v>0.0518225410620699</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2381008787.548912</v>
+        <v>2747804576.778039</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1274599763853191</v>
+        <v>0.1420638711642855</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03657733492145181</v>
+        <v>0.04148284771800031</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2621414109.280345</v>
+        <v>4071827230.260431</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08092072884986841</v>
+        <v>0.1273914280531422</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03695570327624022</v>
+        <v>0.03924561742785926</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>134</v>
+      </c>
+      <c r="J42" t="n">
+        <v>323</v>
+      </c>
+      <c r="K42" t="n">
+        <v>86.09664362159215</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2244043513.416671</v>
+        <v>2137162866.672098</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2001056418134601</v>
+        <v>0.1380011537225289</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0202539983588758</v>
+        <v>0.0245624316542402</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2336778017.635294</v>
+        <v>1963583915.875702</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09380896299320476</v>
+        <v>0.07164387368319772</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03713031253190702</v>
+        <v>0.0280651197497442</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2024,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2089391161.940294</v>
+        <v>2293518390.922044</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1516836480168953</v>
+        <v>0.1490040950475073</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05093619557206041</v>
+        <v>0.04676298151168765</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4821885744.358582</v>
+        <v>3558459306.235914</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1229519558023733</v>
+        <v>0.1424685054108652</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04021855225810839</v>
+        <v>0.06008122014321417</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>193</v>
+      </c>
+      <c r="J46" t="n">
+        <v>322</v>
+      </c>
+      <c r="K46" t="n">
+        <v>57.73366758210216</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4238089627.42887</v>
+        <v>5079343245.730281</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1926860926449238</v>
+        <v>0.152557139668393</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04782597921618535</v>
+        <v>0.04842988276136007</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>144</v>
+      </c>
+      <c r="J47" t="n">
+        <v>322</v>
+      </c>
+      <c r="K47" t="n">
+        <v>67.35123096481917</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2133,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4262869837.995697</v>
+        <v>3158930010.26191</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07545422446756475</v>
+        <v>0.09730277524104532</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02646122864725978</v>
+        <v>0.02939222892727756</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>161</v>
+      </c>
+      <c r="J48" t="n">
+        <v>322</v>
+      </c>
+      <c r="K48" t="n">
+        <v>49.0243255699904</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2164,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1329812463.363827</v>
+        <v>1579690026.219594</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1846097687002803</v>
+        <v>0.1226271760700369</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03298134416595381</v>
+        <v>0.04206096701179839</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2199,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2670172111.058095</v>
+        <v>2618623280.549155</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1557287451217793</v>
+        <v>0.1689243545520803</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05277104181558735</v>
+        <v>0.04843338367152526</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>105</v>
+      </c>
+      <c r="J50" t="n">
+        <v>320</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2240,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1251599814.78982</v>
+        <v>1259482747.932765</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1478138529969221</v>
+        <v>0.1523590412257795</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03831555855036985</v>
+        <v>0.04353990861544289</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2269,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4613544179.307943</v>
+        <v>4067782941.044412</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1098423826522459</v>
+        <v>0.09364628208216046</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04175225838350555</v>
+        <v>0.06207005790190121</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>195</v>
+      </c>
+      <c r="J52" t="n">
+        <v>323</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3215463063.982934</v>
+        <v>3261961729.029072</v>
       </c>
       <c r="F53" t="n">
-        <v>0.12841758285078</v>
+        <v>0.1358401986684114</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03324445989250209</v>
+        <v>0.03542925463216568</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4981995498.130656</v>
+        <v>3433449199.182636</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1452416500111352</v>
+        <v>0.1444524204623816</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03463280077340924</v>
+        <v>0.03933472522082763</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>169</v>
+      </c>
+      <c r="J54" t="n">
+        <v>320</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4882208126.566657</v>
+        <v>3534418017.005266</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1451319174864258</v>
+        <v>0.1582808669086561</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02920935251275495</v>
+        <v>0.02566376851802089</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>150</v>
+      </c>
+      <c r="J55" t="n">
+        <v>321</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1304166128.162746</v>
+        <v>1627233243.93136</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1366197583134642</v>
+        <v>0.1578833199685963</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05581202113229609</v>
+        <v>0.04209055611205729</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4382443146.255395</v>
+        <v>4504183195.842632</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1620972270585876</v>
+        <v>0.1320354996001472</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02407840140767118</v>
+        <v>0.02652366236454462</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>132</v>
+      </c>
+      <c r="J57" t="n">
+        <v>323</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1830742787.589717</v>
+        <v>1599460391.420787</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1297808204156869</v>
+        <v>0.2028746814807481</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02549407273515056</v>
+        <v>0.02510277529359171</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3315961109.453167</v>
+        <v>3896249768.545846</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08473067436407559</v>
+        <v>0.08303617819576577</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03933525796995378</v>
+        <v>0.03866863306459498</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>156</v>
+      </c>
+      <c r="J59" t="n">
+        <v>322</v>
+      </c>
+      <c r="K59" t="n">
+        <v>67.40984724477158</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2330173284.246025</v>
+        <v>3083180028.758253</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1340360411224008</v>
+        <v>0.198327984109155</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02470845917494716</v>
+        <v>0.0230221665539638</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>316</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2172094618.723206</v>
+        <v>3391788972.116363</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1621742938754104</v>
+        <v>0.1776009443538795</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02094124157677272</v>
+        <v>0.03114101098056711</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1959660338.124419</v>
+        <v>1693411450.317194</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1856481227649039</v>
+        <v>0.1781834100271205</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03707404975078095</v>
+        <v>0.03438049194603643</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3741937226.519351</v>
+        <v>5499271810.422674</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09167102354101776</v>
+        <v>0.1003537846149947</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03726113550919929</v>
+        <v>0.04108251217633598</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>157</v>
+      </c>
+      <c r="J63" t="n">
+        <v>322</v>
+      </c>
+      <c r="K63" t="n">
+        <v>71.87829322767087</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2693,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5413021766.241027</v>
+        <v>4384176961.348117</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1571392250056394</v>
+        <v>0.1792737893834973</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03311295306315493</v>
+        <v>0.02574115612645692</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>160</v>
+      </c>
+      <c r="J64" t="n">
+        <v>322</v>
+      </c>
+      <c r="K64" t="n">
+        <v>72.89595826717553</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2730,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4789072528.847109</v>
+        <v>5781154151.701779</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1373268231291895</v>
+        <v>0.1484371592622383</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02365224323104557</v>
+        <v>0.02058089532262397</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>254</v>
+      </c>
+      <c r="J65" t="n">
+        <v>322</v>
+      </c>
+      <c r="K65" t="n">
+        <v>73.07041846674437</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2773,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4610209767.657559</v>
+        <v>3931419246.511949</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1594272910396694</v>
+        <v>0.1044565629933435</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04474569934443178</v>
+        <v>0.05011827416154018</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>159</v>
+      </c>
+      <c r="J66" t="n">
+        <v>323</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3507257351.287658</v>
+        <v>3363438215.361547</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06591622029952061</v>
+        <v>0.06810160689467193</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03707708058128859</v>
+        <v>0.05155932221905767</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2843,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3679062964.156297</v>
+        <v>4297742921.235151</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1433723683507419</v>
+        <v>0.131200686879828</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05153789486164744</v>
+        <v>0.04052539180965947</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>174</v>
+      </c>
+      <c r="J68" t="n">
+        <v>323</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2063512586.739363</v>
+        <v>2087976053.559076</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1216535255501143</v>
+        <v>0.1453067821597345</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0438715885143714</v>
+        <v>0.04025416016974485</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3245824215.580911</v>
+        <v>3715635870.634987</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07206743405611579</v>
+        <v>0.084416208887614</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0364154752193098</v>
+        <v>0.04325529057381762</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>48</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3655804569.348344</v>
+        <v>5494735157.29219</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1149385105902677</v>
+        <v>0.1286819203888602</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0314671211354076</v>
+        <v>0.0324515322428378</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>238</v>
+      </c>
+      <c r="J71" t="n">
+        <v>323</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1508645882.6864</v>
+        <v>1445437997.712093</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08135553643371007</v>
+        <v>0.09484862629202637</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03868710577864114</v>
+        <v>0.03911969208455449</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2329200852.436005</v>
+        <v>3450934858.44041</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0830579156654829</v>
+        <v>0.1048672772341242</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04743700838858649</v>
+        <v>0.04391854999147482</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3439206332.033759</v>
+        <v>3028358765.109015</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1729396948099182</v>
+        <v>0.1507063722962539</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03250743240682608</v>
+        <v>0.03338723714759901</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2011199671.439007</v>
+        <v>2162661279.974454</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1425166237361988</v>
+        <v>0.1112355201883662</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02556118866483889</v>
+        <v>0.03622119654057843</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4601242400.9494</v>
+        <v>4585020142.650471</v>
       </c>
       <c r="F76" t="n">
-        <v>0.102188578758903</v>
+        <v>0.07955912441700845</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02682175530896621</v>
+        <v>0.02578232210571823</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>152</v>
+      </c>
+      <c r="J76" t="n">
+        <v>323</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2228648692.28154</v>
+        <v>2058141562.244699</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1399126175392679</v>
+        <v>0.1306451092952599</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02544765218132774</v>
+        <v>0.02352095254293642</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3421831232.591269</v>
+        <v>3713803254.691865</v>
       </c>
       <c r="F78" t="n">
-        <v>0.120137029257908</v>
+        <v>0.1116136461840055</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04797357689268326</v>
+        <v>0.03779153366465084</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>159</v>
+      </c>
+      <c r="J78" t="n">
+        <v>321</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1320305471.657204</v>
+        <v>1809400674.701262</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1169075612300165</v>
+        <v>0.1065985308761816</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03020735831775085</v>
+        <v>0.0271972292606589</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3487643408.216846</v>
+        <v>5047228320.446101</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07590847125683414</v>
+        <v>0.07776372162298013</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03872996723390399</v>
+        <v>0.02719065458082813</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>158</v>
+      </c>
+      <c r="J80" t="n">
+        <v>322</v>
+      </c>
+      <c r="K80" t="n">
+        <v>56.07353541036075</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4832505014.119033</v>
+        <v>4061524109.996967</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09340260012523921</v>
+        <v>0.128441217062081</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02936060338048984</v>
+        <v>0.02142958182765468</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>148</v>
+      </c>
+      <c r="J81" t="n">
+        <v>323</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4061310853.62635</v>
+        <v>5557696475.416981</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1741125548806955</v>
+        <v>0.1672219145436719</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02744986313270488</v>
+        <v>0.0215834303620734</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>233</v>
+      </c>
+      <c r="J82" t="n">
+        <v>323</v>
+      </c>
+      <c r="K82" t="n">
+        <v>74.09472433868542</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1584451267.99071</v>
+        <v>2218809687.613693</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1409134876301373</v>
+        <v>0.1102416293071761</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03554145981186513</v>
+        <v>0.02939867671665646</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2533708824.785078</v>
+        <v>1731143480.953897</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09112728885159375</v>
+        <v>0.09040267055514352</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04398064764630422</v>
+        <v>0.03389015444860149</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3338374808.225915</v>
+        <v>2542228774.014537</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1389669458151592</v>
+        <v>0.1241816869543863</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04939017649298739</v>
+        <v>0.04723258131617804</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="n">
+        <v>38.93615629465923</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2684973457.723733</v>
+        <v>2643143289.900797</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1233457488199798</v>
+        <v>0.1212850972453727</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01709380154692404</v>
+        <v>0.02283518388628421</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1160161142.302738</v>
+        <v>1503784857.906497</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1636346586717543</v>
+        <v>0.1471047987229447</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03025323454316043</v>
+        <v>0.04237924956399171</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2898849628.919194</v>
+        <v>3305450216.189408</v>
       </c>
       <c r="F88" t="n">
-        <v>0.115668680262472</v>
+        <v>0.1452824284010566</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03350404281163361</v>
+        <v>0.04009901530637296</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2576941823.157661</v>
+        <v>2972852396.927712</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1513415142647363</v>
+        <v>0.1014673168398077</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03276740763393757</v>
+        <v>0.03669767466335476</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1415047208.263651</v>
+        <v>1980001904.481805</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1132494723794195</v>
+        <v>0.0863767171851975</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05056132019256369</v>
+        <v>0.05540581115267416</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1681845954.913418</v>
+        <v>1442277118.543287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1768547217808006</v>
+        <v>0.1558274744333089</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03802437657468479</v>
+        <v>0.05881132509817269</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2933369926.310866</v>
+        <v>2441456881.315822</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07687239147225818</v>
+        <v>0.08901631930774932</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04040286970290744</v>
+        <v>0.03761804638763264</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3831483855.116285</v>
+        <v>3754682260.00533</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1127905035927218</v>
+        <v>0.09527835738270513</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04486945919338906</v>
+        <v>0.03471926829896831</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>146</v>
+      </c>
+      <c r="J93" t="n">
+        <v>323</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2437958708.064281</v>
+        <v>1963407584.972649</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1656376284629615</v>
+        <v>0.1515890537737759</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04242317613644067</v>
+        <v>0.03441199894128903</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2679985839.035657</v>
+        <v>3134380649.072576</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1237264055704577</v>
+        <v>0.08968128659790033</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03603261000069312</v>
+        <v>0.03891680291516421</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1751734365.960718</v>
+        <v>2204267932.656781</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1048936592288789</v>
+        <v>0.08739691744011954</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04203200219634624</v>
+        <v>0.0390195918340128</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3329060138.556026</v>
+        <v>4135942575.199648</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1073222112028497</v>
+        <v>0.1228492875856832</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02499454376591013</v>
+        <v>0.02903761940073863</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>164</v>
+      </c>
+      <c r="J97" t="n">
+        <v>323</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3031429608.671273</v>
+        <v>3755213015.164618</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1031812163519561</v>
+        <v>0.1273846486469215</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02631711479922276</v>
+        <v>0.02187051415256948</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>79</v>
+      </c>
+      <c r="J98" t="n">
+        <v>323</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2330405016.706065</v>
+        <v>2593034885.6721</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1029385198160281</v>
+        <v>0.1159625997941467</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02882618320073949</v>
+        <v>0.02503211597043869</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4403830899.160363</v>
+        <v>4352744965.825747</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1563457927297811</v>
+        <v>0.1227407389750892</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01801778326536994</v>
+        <v>0.02521465224486542</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>143</v>
+      </c>
+      <c r="J100" t="n">
+        <v>323</v>
+      </c>
+      <c r="K100" t="n">
+        <v>74.01679001349412</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2469803471.146228</v>
+        <v>3332023323.939253</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1960770299248233</v>
+        <v>0.2077174748548959</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05517874173539968</v>
+        <v>0.05249329485792563</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
